--- a/Engine/Unity/3.x/Learning_01/Tables/ValTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Tables/ValTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -75,60 +75,12 @@
   <si>
     <t>휴대용 콘솔 플랫폼 타겟 프레임</t>
   </si>
-  <si>
-    <t>OFFSET_V_ALERT_P_TITLE</t>
-  </si>
-  <si>
-    <t>경고 팝업 타이틀 수직 간격</t>
-  </si>
-  <si>
-    <t>OFFSET_V_ALERT_P_BTN</t>
-  </si>
-  <si>
-    <t>경고 팝업 버튼 수직 간격</t>
-  </si>
-  <si>
-    <t>OFFSET_H_ALERT_P_BTN</t>
-  </si>
-  <si>
-    <t>경고 팝업 버튼 수평 간격</t>
-  </si>
-  <si>
-    <t>EXTRA_OFFSET_V_ALERT_P_TITLE</t>
-  </si>
-  <si>
-    <t>경고 팝업 타이틀 추가 수직 간격</t>
-  </si>
-  <si>
-    <t>EXTRA_OFFSET_V_ALERT_P_MSG</t>
-  </si>
-  <si>
-    <t>경고 팝업 메세지 추가 수직 간격</t>
-  </si>
-  <si>
-    <t>EXTRA_OFFSET_V_ALERT_P_BTN</t>
-  </si>
-  <si>
-    <t>경고 팝업 버튼 추가 수직 간격</t>
-  </si>
-  <si>
-    <t>OFFSET_V_ALERT_P_BG</t>
-  </si>
-  <si>
-    <t>경고 팝업 배경 수직 간격</t>
-  </si>
-  <si>
-    <t>OFFSET_H_ALERT_P_BG</t>
-  </si>
-  <si>
-    <t>경고 팝업 배경 수평 간격</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -137,6 +89,10 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -169,9 +125,22 @@
       </top>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -186,21 +155,32 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -496,561 +476,489 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
+      <c r="Z2" s="4"/>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>0.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>10.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>2.0</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>0.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>6.0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>1.0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>0.0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>0.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1.0</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>0.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>60.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>1.0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>0.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>60.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>1.0</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>0.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>60.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>1.0</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="9">
         <v>0.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="9">
         <v>60.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="9">
         <v>1.0</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="10"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C10" s="5">
-        <v>70.0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
     </row>
     <row r="11" ht="15.0" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>45.0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
     </row>
     <row r="12" ht="15.0" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>45.0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
     </row>
     <row r="13" ht="15.0" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
     </row>
     <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>45.0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="7">
-        <v>145.0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
       <c r="A18" s="1"/>
@@ -6317,222 +6225,14 @@
       <c r="X212" s="1"/>
       <c r="Y212" s="1"/>
     </row>
-    <row r="213" ht="15.0" customHeight="1">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="1"/>
-      <c r="L213" s="1"/>
-      <c r="M213" s="1"/>
-      <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
-      <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-      <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
-      <c r="U213" s="1"/>
-      <c r="V213" s="1"/>
-      <c r="W213" s="1"/>
-      <c r="X213" s="1"/>
-      <c r="Y213" s="1"/>
-    </row>
-    <row r="214" ht="15.0" customHeight="1">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-      <c r="S214" s="1"/>
-      <c r="T214" s="1"/>
-      <c r="U214" s="1"/>
-      <c r="V214" s="1"/>
-      <c r="W214" s="1"/>
-      <c r="X214" s="1"/>
-      <c r="Y214" s="1"/>
-    </row>
-    <row r="215" ht="15.0" customHeight="1">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="U215" s="1"/>
-      <c r="V215" s="1"/>
-      <c r="W215" s="1"/>
-      <c r="X215" s="1"/>
-      <c r="Y215" s="1"/>
-    </row>
-    <row r="216" ht="15.0" customHeight="1">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="U216" s="1"/>
-      <c r="V216" s="1"/>
-      <c r="W216" s="1"/>
-      <c r="X216" s="1"/>
-      <c r="Y216" s="1"/>
-    </row>
-    <row r="217" ht="15.0" customHeight="1">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="1"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
-      <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
-      <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-      <c r="U217" s="1"/>
-      <c r="V217" s="1"/>
-      <c r="W217" s="1"/>
-      <c r="X217" s="1"/>
-      <c r="Y217" s="1"/>
-    </row>
-    <row r="218" ht="15.0" customHeight="1">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="1"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
-      <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
-      <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
-      <c r="U218" s="1"/>
-      <c r="V218" s="1"/>
-      <c r="W218" s="1"/>
-      <c r="X218" s="1"/>
-      <c r="Y218" s="1"/>
-    </row>
-    <row r="219" ht="15.0" customHeight="1">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="1"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
-      <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
-      <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-      <c r="S219" s="1"/>
-      <c r="T219" s="1"/>
-      <c r="U219" s="1"/>
-      <c r="V219" s="1"/>
-      <c r="W219" s="1"/>
-      <c r="X219" s="1"/>
-      <c r="Y219" s="1"/>
-    </row>
-    <row r="220" ht="15.0" customHeight="1">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-      <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
-      <c r="V220" s="1"/>
-      <c r="W220" s="1"/>
-      <c r="X220" s="1"/>
-      <c r="Y220" s="1"/>
-    </row>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
@@ -7305,14 +7005,6 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Engine/Unity/3.x/Learning_01/Tables/ValTable.xlsx
+++ b/Engine/Unity/3.x/Learning_01/Tables/ValTable.xlsx
@@ -34,7 +34,7 @@
     <t>광고 딜레이</t>
   </si>
   <si>
-    <t>DELTA_TIME_ADS</t>
+    <t>DELTA_T_ADS</t>
   </si>
   <si>
     <t>광고 시간 간격</t>
@@ -167,19 +167,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -450,8 +462,8 @@
       <c r="C2" s="3">
         <v>60.0</v>
       </c>
-      <c r="D2" s="3">
-        <v>2.0</v>
+      <c r="D2" s="4">
+        <v>1.0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -476,273 +488,273 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="4"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" ht="15.0" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>0.0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>10.0</v>
       </c>
-      <c r="D3" s="6">
-        <v>2.0</v>
+      <c r="D3" s="8">
+        <v>1.0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" ht="15.0" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>0.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>6.0</v>
       </c>
-      <c r="D4" s="6">
-        <v>1.0</v>
+      <c r="D4" s="8">
+        <v>0.0</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" ht="15.0" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>0.0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0.0</v>
       </c>
-      <c r="D5" s="6">
-        <v>1.0</v>
+      <c r="D5" s="8">
+        <v>0.0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" ht="15.0" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>0.0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>60.0</v>
       </c>
-      <c r="D6" s="6">
-        <v>1.0</v>
+      <c r="D6" s="8">
+        <v>0.0</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" ht="15.0" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>0.0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="7">
         <v>60.0</v>
       </c>
-      <c r="D7" s="6">
-        <v>1.0</v>
+      <c r="D7" s="8">
+        <v>0.0</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8" ht="15.0" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>0.0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="7">
         <v>60.0</v>
       </c>
-      <c r="D8" s="6">
-        <v>1.0</v>
+      <c r="D8" s="8">
+        <v>0.0</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" ht="15.0" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="12">
         <v>0.0</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="12">
         <v>60.0</v>
       </c>
-      <c r="D9" s="9">
-        <v>1.0</v>
+      <c r="D9" s="13">
+        <v>0.0</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="14"/>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="1"/>
